--- a/teste_segmentare.xlsx
+++ b/teste_segmentare.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e8a77377a34f45/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Retele-Convolutionale-Segmentare-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{672022FC-09DD-49A3-8AB9-781F1ECB4BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14440B77-B0FB-48B9-87CB-E6FBBECB2FD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59858069-CE85-4D74-AAAF-94885F967555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2940" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{8C7FD27A-6ECD-4AA1-A70F-857FD46276D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8C7FD27A-6ECD-4AA1-A70F-857FD46276D5}"/>
   </bookViews>
   <sheets>
     <sheet name="SKip si data_aug" sheetId="1" r:id="rId1"/>
     <sheet name="teste random aug" sheetId="2" r:id="rId2"/>
     <sheet name="Teste dice index" sheetId="3" r:id="rId3"/>
+    <sheet name="combinatii" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="25">
   <si>
     <t xml:space="preserve">img size </t>
   </si>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dice Index Binary crossentropy </t>
+  </si>
+  <si>
+    <t>Rmsprop</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CE8E3B-1EC8-47A5-9048-6EDC896AE6B5}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,4 +1660,212 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25714D5-111E-40C0-AC9B-D9C03CA31E03}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1E-4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>360</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <v>0.872</v>
+      </c>
+      <c r="L2">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>0.1411</v>
+      </c>
+      <c r="L3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>360</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>6.88E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1E-4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>360</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/teste_segmentare.xlsx
+++ b/teste_segmentare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Retele-Convolutionale-Segmentare-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59858069-CE85-4D74-AAAF-94885F967555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE26FD9-12E1-4178-9807-184A0C77D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8C7FD27A-6ECD-4AA1-A70F-857FD46276D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="3" xr2:uid="{8C7FD27A-6ECD-4AA1-A70F-857FD46276D5}"/>
   </bookViews>
   <sheets>
     <sheet name="SKip si data_aug" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
   <si>
     <t xml:space="preserve">img size </t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Rmsprop</t>
+  </si>
+  <si>
+    <t>256X256</t>
+  </si>
+  <si>
+    <t>0.6/0.2/0.2</t>
+  </si>
+  <si>
+    <t>probabilitate (Hflip)</t>
   </si>
 </sst>
 </file>
@@ -1158,12 +1167,12 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
@@ -1664,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25714D5-111E-40C0-AC9B-D9C03CA31E03}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1684,7 @@
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" customWidth="1"/>
     <col min="12" max="12" width="24.77734375" customWidth="1"/>
     <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1"/>
@@ -1710,7 +1719,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -1818,7 +1827,7 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1856,13 +1865,165 @@
         <v>0.3</v>
       </c>
       <c r="H5">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
         <v>70</v>
+      </c>
+      <c r="K5">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>270</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.90810000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1E-4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>270</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>360</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.91620000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>1E-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>360</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/teste_segmentare.xlsx
+++ b/teste_segmentare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Retele-Convolutionale-Segmentare-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE26FD9-12E1-4178-9807-184A0C77D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACFE5D6-B045-48C7-AA5B-DC7F9B387A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="3" xr2:uid="{8C7FD27A-6ECD-4AA1-A70F-857FD46276D5}"/>
+    <workbookView xWindow="1860" yWindow="1188" windowWidth="17280" windowHeight="8964" tabRatio="734" activeTab="3" xr2:uid="{8C7FD27A-6ECD-4AA1-A70F-857FD46276D5}"/>
   </bookViews>
   <sheets>
     <sheet name="SKip si data_aug" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="31">
   <si>
     <t xml:space="preserve">img size </t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>probabilitate (Hflip)</t>
+  </si>
+  <si>
+    <t>128X128</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>512X512</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25714D5-111E-40C0-AC9B-D9C03CA31E03}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,10 +1731,10 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1862,7 +1871,7 @@
         <v>100</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
         <v>180</v>
@@ -1874,10 +1883,10 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>5.4399999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L5">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1996,13 +2005,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1E-4</v>
@@ -2024,6 +2033,161 @@
       </c>
       <c r="J9">
         <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1E-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>360</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>0.06</v>
+      </c>
+      <c r="L10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1E-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>360</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>0.03</v>
+      </c>
+      <c r="L11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>360</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1E-4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>360</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>0.02</v>
+      </c>
+      <c r="L13">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
